--- a/doc/ue_fname_enum.xlsx
+++ b/doc/ue_fname_enum.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F4BEDE-3B84-4B0C-8DB1-29D0A3E477AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D530ED-7AB8-4E36-A7FC-6DE9E9A6C990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
     <sheet name="枚举用法对比" sheetId="2" r:id="rId2"/>
     <sheet name="UEnum实现" sheetId="3" r:id="rId3"/>
+    <sheet name="与字符串的关系" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="131">
   <si>
     <t>宏定义：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -602,6 +603,48 @@
   <si>
     <t>ENUM定义的整形枚举和蓝图结合在一起</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fname tmp = TEXT("abcd");</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fname tmp = "aaa";</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FName(const WIDECHAR* Name, EFindName FindType=FNAME_Add);</t>
+  </si>
+  <si>
+    <t>FName(const ANSICHAR* Name, EFindName FindType=FNAME_Add);</t>
+  </si>
+  <si>
+    <t>本质就是把字符串加入到底层的NamePool里面，自身保留对应的索引值而已</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static bool bNamePoolInitialized;</t>
+  </si>
+  <si>
+    <t>alignas(FNamePool) static uint8 NamePoolData[sizeof(FNamePool)];</t>
+  </si>
+  <si>
+    <t>static FNamePool&amp; GetNamePool()</t>
+  </si>
+  <si>
+    <t>if (bNamePoolInitialized)</t>
+  </si>
+  <si>
+    <t>return *(FNamePool*)NamePoolData;</t>
+  </si>
+  <si>
+    <t>FNamePool* Singleton = new (NamePoolData) FNamePool;</t>
+  </si>
+  <si>
+    <t>bNamePoolInitialized = true;</t>
+  </si>
+  <si>
+    <t>return *Singleton;</t>
   </si>
 </sst>
 </file>
@@ -1456,7 +1499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B03719-F021-46B0-AC9F-43D65B48B053}">
   <dimension ref="B2:M76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -1797,4 +1840,111 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCB8C97-C947-461E-9CE3-2594E9E5AEF1}">
+  <dimension ref="B4:D27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>